--- a/tables/xls/it/80_Volontari preaccreditati.xlsx
+++ b/tables/xls/it/80_Volontari preaccreditati.xlsx
@@ -153,7 +153,7 @@
     <t>VOLONTARI PREACCREDITATI</t>
   </si>
   <si>
-    <t>Volontari Preaccreditati</t>
+    <t>Volontari preaccreditati</t>
   </si>
   <si>
     <t>Crescente</t>
@@ -725,10 +725,10 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
